--- a/code/media_30.xlsx
+++ b/code/media_30.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GWO" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Random" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hibrido_es" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hibrido_BL" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t xml:space="preserve">milestone</t>
   </si>
@@ -238,7 +239,7 @@
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -1771,13 +1772,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -1873,6 +1874,9 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -1882,1368 +1886,2946 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>79766710000</v>
+        <v>33249356000</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>4.355667E+040</v>
+        <v>1.4945197575918E+049</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>237125.4</v>
+        <v>998702.31</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>23841.14</v>
+        <v>6941.2631</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>465.6504</v>
+        <v>316.89678</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>112.4031</v>
+        <v>63.384558</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1783.503</v>
+        <v>434.64133</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>399.5085</v>
+        <v>272.64428</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>25195.05</v>
+        <v>6380.7744</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>8168.259</v>
+        <v>7653.8223</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>21095.54</v>
+        <v>30624.5889</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>14081600000</v>
+        <v>6560548800</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>2383733000</v>
+        <v>2961351630</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>5868279</v>
+        <v>1800151.78</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>971944700</v>
+        <v>42939115.7</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>3135.354</v>
+        <v>3139.8938</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>3127.281</v>
+        <v>1706.8511</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>129236700</v>
+        <v>69099207</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>829129600</v>
+        <v>111591828</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>1298.398</v>
+        <v>1095.61973</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>680.6945</v>
+        <v>561.16956</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>8719.326</v>
+        <v>8378.2523</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>1195.588</v>
+        <v>923.98847</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>1481.304</v>
+        <v>1015.03787</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>9500.339</v>
+        <v>1394.4447</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>7379.838</v>
+        <v>5536.1087</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>1446.26</v>
+        <v>500.00708</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>5802.986</v>
+        <v>499.9832</v>
       </c>
       <c r="AE2" s="0" t="n">
-        <v>4194.73</v>
+        <v>2774.0256</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>622319000</v>
+        <v>256885876</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>79766710000</v>
+        <v>26112724000</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>4.355667E+040</v>
+        <v>1.8157009279494E+047</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>202834.4</v>
+        <v>998702.31</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>20749.21</v>
+        <v>5353.6436</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>465.6504</v>
+        <v>302.88981</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>94.86617</v>
+        <v>59.420527</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1783.503</v>
+        <v>401.84951</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>399.5085</v>
+        <v>242.3126</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>25195.05</v>
+        <v>4511.3352</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>8168.259</v>
+        <v>7274.9495</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>9021.883</v>
+        <v>30544.6379</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>13246130000</v>
+        <v>5292634400</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>2383733000</v>
+        <v>2179030530</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>5868279</v>
+        <v>1493379.82</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>971944700</v>
+        <v>29533145.5</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>3135.354</v>
+        <v>2797.5921</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>2188.247</v>
+        <v>1542.4663</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>129236700</v>
+        <v>42948714.9</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>563368200</v>
+        <v>80525559</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>796.9317</v>
+        <v>906.41752</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>652.024</v>
+        <v>514.29289</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>8471.523</v>
+        <v>7635.4189</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>1195.588</v>
+        <v>833.96618</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>1348.505</v>
+        <v>978.20019</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>6990.375</v>
+        <v>1205.88758</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>7379.838</v>
+        <v>4653.8002</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>1446.26</v>
+        <v>500.00705</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>5760.202</v>
+        <v>499.98314</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>4024.967</v>
+        <v>2042.3051</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>622319000</v>
+        <v>195776647</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>55596280000</v>
+        <v>24641706000</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>4.355667E+040</v>
+        <v>5.16256883040524E+044</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>137254</v>
+        <v>998702.31</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>17269.98</v>
+        <v>4044.4968</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>465.6504</v>
+        <v>296.66544</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>94.86617</v>
+        <v>59.056995</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1783.503</v>
+        <v>379.98488</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>399.5085</v>
+        <v>226.0805</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>18132.02</v>
+        <v>4164.489</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>8168.259</v>
+        <v>7011.992</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>9021.883</v>
+        <v>20661.2469</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>13145990000</v>
+        <v>4535859900</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>2383733000</v>
+        <v>2067883230</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>5868279</v>
+        <v>1434977.42</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>945453000</v>
+        <v>10991045</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>3135.354</v>
+        <v>2481.1808</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>2113.391</v>
+        <v>1443.9413</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>54464640</v>
+        <v>33530289.9</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>563368200</v>
+        <v>73356959</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>796.9317</v>
+        <v>816.3364</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>652.024</v>
+        <v>490.84782</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>7844.028</v>
+        <v>7460.3243</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>1195.588</v>
+        <v>819.44864</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>1337.097</v>
+        <v>967.9629</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>6990.375</v>
+        <v>1025.39758</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>7379.838</v>
+        <v>4637.2093</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>1446.26</v>
+        <v>500.007</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>5760.202</v>
+        <v>499.98312</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>3499.878</v>
+        <v>1817.8015</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>622319000</v>
+        <v>119009004</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>55596280000</v>
+        <v>22883949000</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>4.355667E+040</v>
+        <v>2.46972842927651E+044</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>137254</v>
+        <v>998702.31</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>17269.98</v>
+        <v>3124.5049</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>465.6504</v>
+        <v>283.13932</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>94.86617</v>
+        <v>54.120115</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1732.11</v>
+        <v>358.39862</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>399.5085</v>
+        <v>220.47996</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>18132.02</v>
+        <v>4014.2676</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>8168.259</v>
+        <v>6674.4248</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>9021.883</v>
+        <v>14893.6783</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>13145990000</v>
+        <v>3925418700</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>2383733000</v>
+        <v>1900288230</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>2797442</v>
+        <v>1226485.32</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>945453000</v>
+        <v>8884478.6</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>3135.354</v>
+        <v>2345.6635</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>1836.933</v>
+        <v>1289.544</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>8658481</v>
+        <v>15191367.3</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>563368200</v>
+        <v>46572393</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>796.9317</v>
+        <v>762.04251</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>642.5848</v>
+        <v>480.61626</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>6756.313</v>
+        <v>6774.1717</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>1135.692</v>
+        <v>804.85703</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>1235.223</v>
+        <v>957.4039</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>6990.375</v>
+        <v>954.87383</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>7379.838</v>
+        <v>4078.4484</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>1359.971</v>
+        <v>500.00691</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>5227.231</v>
+        <v>499.98306</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <v>3499.878</v>
+        <v>1553.5192</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>622319000</v>
+        <v>68659844</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>55596280000</v>
+        <v>21098540000</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4.355667E+040</v>
+        <v>2.14457357134E+039</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>137254</v>
+        <v>998702.31</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>14777.19</v>
+        <v>2587.5989</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>465.6504</v>
+        <v>263.94464</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>94.86617</v>
+        <v>49.879969</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1701.807</v>
+        <v>305.42169</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>399.5085</v>
+        <v>204.95417</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>18132.02</v>
+        <v>3548.5119</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>7981.532</v>
+        <v>5715.529</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>9021.883</v>
+        <v>7015.2874</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>8609839000</v>
+        <v>3453148100</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>2383733000</v>
+        <v>1302859900</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>1945099</v>
+        <v>1096947.36</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>742615500</v>
+        <v>3616306.48</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>3135.354</v>
+        <v>2166.3875</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>1635.294</v>
+        <v>988.52529</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>8658481</v>
+        <v>5515948.17</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>563368200</v>
+        <v>30944137.7</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>796.9317</v>
+        <v>696.65143</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>618.1518</v>
+        <v>451.59515</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>6756.313</v>
+        <v>4305.702</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>1135.692</v>
+        <v>782.41157</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>990.4328</v>
+        <v>941.52627</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>6990.375</v>
+        <v>854.75028</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>7379.838</v>
+        <v>3895.5384</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>1359.971</v>
+        <v>500.0067</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>4444.467</v>
+        <v>499.85404</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>3499.878</v>
+        <v>1344.6344</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>622319000</v>
+        <v>50186371</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>55596280000</v>
+        <v>19807453000</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4.355667E+040</v>
+        <v>5.70832885E+036</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>137254</v>
+        <v>95692.213</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>13657.67</v>
+        <v>1823.2639</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>444.4362</v>
+        <v>255.79537</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>85.84852</v>
+        <v>49.879969</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1655.41</v>
+        <v>293.84214</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>399.5085</v>
+        <v>190.63067</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>15467.27</v>
+        <v>3449.927</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>7981.532</v>
+        <v>4447.8814</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>9021.883</v>
+        <v>5240.1971</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>5723006000</v>
+        <v>2776895700</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>1665951000</v>
+        <v>973698320</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>1945099</v>
+        <v>883168.34</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>571422100</v>
+        <v>782322.49</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>3135.354</v>
+        <v>2001.6859</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>1635.294</v>
+        <v>905.20146</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>8658481</v>
+        <v>2620138.56</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>563368200</v>
+        <v>16202316.1</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>796.9317</v>
+        <v>667.397</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>612.2133</v>
+        <v>430.57855</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>6368.808</v>
+        <v>2478.0524</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>1034.693</v>
+        <v>746.73794</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>990.4328</v>
+        <v>935.39816</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <v>6286.272</v>
+        <v>785.95247</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>7379.838</v>
+        <v>3753.8083</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>1269.997</v>
+        <v>500.00645</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>4444.467</v>
+        <v>499.7353</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>2942.748</v>
+        <v>1138.31227</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>622319000</v>
+        <v>38352845</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>55596280000</v>
+        <v>17758345000</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1.899233E+040</v>
+        <v>1.78286064E+036</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>137254</v>
+        <v>77913.047</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>13657.67</v>
+        <v>1635.3063</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>444.4362</v>
+        <v>250.45926</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>85.84852</v>
+        <v>49.879969</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1655.41</v>
+        <v>291.19946</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>399.5085</v>
+        <v>181.8088</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>15467.27</v>
+        <v>3449.927</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>7862.978</v>
+        <v>4254.8735</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>7363.848</v>
+        <v>4578.5432</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>5723006000</v>
+        <v>1688327700</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>1665951000</v>
+        <v>745137110</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>819503.4</v>
+        <v>690460.62</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>571422100</v>
+        <v>452664.11</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>3135.354</v>
+        <v>1817.2315</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>1635.294</v>
+        <v>847.26705</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>8658481</v>
+        <v>1785940.05</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>563368200</v>
+        <v>7969194.4</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>796.9317</v>
+        <v>666.45598</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>612.2133</v>
+        <v>423.84656</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>5110.325</v>
+        <v>2114.1032</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>1034.693</v>
+        <v>732.89086</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>990.4328</v>
+        <v>935.39816</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <v>4528.798</v>
+        <v>748.91452</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <v>7379.838</v>
+        <v>3697.7669</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>1269.997</v>
+        <v>500.00641</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>4129.263</v>
+        <v>499.69417</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>2942.748</v>
+        <v>1100.54289</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>511594700</v>
+        <v>35332770</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>40</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>55596280000</v>
+        <v>15248528000</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3.967351E+037</v>
+        <v>3.440930637E+035</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>135786.4</v>
+        <v>72022.926</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>13657.67</v>
+        <v>1255.515</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>444.4362</v>
+        <v>250.45926</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>85.71197</v>
+        <v>49.879969</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1655.41</v>
+        <v>291.19946</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>399.5085</v>
+        <v>178.2467</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>15467.27</v>
+        <v>3449.927</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>7222.108</v>
+        <v>4159.6963</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>6889.796</v>
+        <v>3834.1588</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>5656841000</v>
+        <v>1435694800</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>1665951000</v>
+        <v>591315050</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>819503.4</v>
+        <v>617165</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>307996500</v>
+        <v>293393.25</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>3135.354</v>
+        <v>1755.7649</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>1635.294</v>
+        <v>847.26705</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>8658481</v>
+        <v>1525117.71</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>516219700</v>
+        <v>5536330.6</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>796.9317</v>
+        <v>664.73851</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>612.2133</v>
+        <v>420.55394</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>5110.325</v>
+        <v>1874.0828</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>1034.693</v>
+        <v>730.798</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>990.4328</v>
+        <v>935.39816</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>4528.798</v>
+        <v>704.79359</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <v>7379.838</v>
+        <v>3667.6675</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>1216.806</v>
+        <v>500.00639</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>4065.014</v>
+        <v>499.69417</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>2942.748</v>
+        <v>1052.15919</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>506924100</v>
+        <v>30651138</v>
+      </c>
+      <c r="AG9" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>55596280000</v>
+        <v>11515290300</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3.967351E+037</v>
+        <v>1.502452585E+035</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>135786.4</v>
+        <v>70409.794</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>11980.01</v>
+        <v>935.40408</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>444.4362</v>
+        <v>250.13586</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>85.71197</v>
+        <v>49.879969</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1647.89</v>
+        <v>291.19946</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>399.5085</v>
+        <v>171.4967</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>15467.27</v>
+        <v>3449.927</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>7222.108</v>
+        <v>4111.3787</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>6852.114</v>
+        <v>3077.4304</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>5656841000</v>
+        <v>966946680</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>1665951000</v>
+        <v>454413990</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>819503.4</v>
+        <v>600375.34</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>307996500</v>
+        <v>200605.186</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>3135.354</v>
+        <v>1667.057</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>1635.294</v>
+        <v>847.26705</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>8658481</v>
+        <v>1157279.66</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>516219700</v>
+        <v>2509177.8</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>796.9317</v>
+        <v>664.73851</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>612.2133</v>
+        <v>417.60773</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>5110.325</v>
+        <v>1515.8375</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>988.6329</v>
+        <v>723.41584</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>990.4328</v>
+        <v>932.96222</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>4528.798</v>
+        <v>654.91496</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>7379.838</v>
+        <v>3552.0664</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>1185.442</v>
+        <v>500.00639</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>4065.014</v>
+        <v>499.67135</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>2555.064</v>
+        <v>1037.16599</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>506924100</v>
+        <v>27703130.9</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>55596280000</v>
+        <v>7799057900</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>3.967351E+037</v>
+        <v>6.80183956008E+033</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>135786.4</v>
+        <v>67571.689</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>11980.01</v>
+        <v>633.9959</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>444.4362</v>
+        <v>247.19852</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>85.71197</v>
+        <v>49.879969</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1647.89</v>
+        <v>291.19946</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>399.5085</v>
+        <v>167.13035</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>15467.27</v>
+        <v>3449.927</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>7222.108</v>
+        <v>4016.0854</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>6852.114</v>
+        <v>2224.3392</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>5656841000</v>
+        <v>656564300</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>1665951000</v>
+        <v>250230300</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>797889.7</v>
+        <v>578961.68</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>307996500</v>
+        <v>128586.435</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>3135.354</v>
+        <v>1619.4024</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>1362.883</v>
+        <v>847.26705</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>8658481</v>
+        <v>1056338.64</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>516219700</v>
+        <v>1270326.33</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>796.9317</v>
+        <v>664.73851</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>612.2133</v>
+        <v>413.65308</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>5110.325</v>
+        <v>1025.89183</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>988.6329</v>
+        <v>721.97183</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>990.4328</v>
+        <v>930.51135</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>4528.798</v>
+        <v>599.10912</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>7379.838</v>
+        <v>3436.9518</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>1185.442</v>
+        <v>500.00639</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>4065.014</v>
+        <v>499.64776</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>2555.064</v>
+        <v>988.31678</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>506924100</v>
+        <v>25804104.9</v>
+      </c>
+      <c r="AG11" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>70</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>55596280000</v>
+        <v>4514689300</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>3.967351E+037</v>
+        <v>9.163627825E+029</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>135786.4</v>
+        <v>65082.286</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>11980.01</v>
+        <v>466.90374</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>444.4362</v>
+        <v>246.41185</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>85.71197</v>
+        <v>49.879969</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1647.89</v>
+        <v>291.19946</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>399.5085</v>
+        <v>162.92492</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>15467.27</v>
+        <v>3449.927</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>7222.108</v>
+        <v>3997.3344</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>6852.114</v>
+        <v>1160.06463</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>5656841000</v>
+        <v>441227910</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>1665951000</v>
+        <v>125809617</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>797889.7</v>
+        <v>571728.22</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>307996500</v>
+        <v>125068.918</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>3135.354</v>
+        <v>1548.94859</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>1362.883</v>
+        <v>847.26705</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>8658481</v>
+        <v>941653.95</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>516219700</v>
+        <v>704576.62</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>796.9317</v>
+        <v>664.73851</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>612.2133</v>
+        <v>403.8543</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>5110.325</v>
+        <v>749.24256</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>988.6329</v>
+        <v>714.37719</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>990.4328</v>
+        <v>930.19185</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <v>4528.798</v>
+        <v>524.58151</v>
       </c>
       <c r="AB12" s="0" t="n">
-        <v>7379.838</v>
+        <v>3351.3291</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>1185.442</v>
+        <v>500.00639</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>3878.557</v>
+        <v>499.63399</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <v>2555.064</v>
+        <v>982.86212</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>480467900</v>
+        <v>21558263.9</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>55596280000</v>
+        <v>2638655100</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>3.967351E+037</v>
+        <v>3.4402545378E+027</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>135786.4</v>
+        <v>63777.679</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>11980.01</v>
+        <v>294.81181</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>444.4362</v>
+        <v>246.24471</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>85.71197</v>
+        <v>49.879969</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1647.89</v>
+        <v>291.19946</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>399.5085</v>
+        <v>157.70778</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>15467.27</v>
+        <v>3449.927</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>7222.108</v>
+        <v>3979.3126</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>6852.114</v>
+        <v>660.3214</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>5656841000</v>
+        <v>281296610</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>1665951000</v>
+        <v>66246740</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>553265.9</v>
+        <v>507966.62</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>307996500</v>
+        <v>86588.354</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>3135.354</v>
+        <v>1485.68459</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>1318.278</v>
+        <v>847.26705</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>8658481</v>
+        <v>896253.71</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>516219700</v>
+        <v>522728.35</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>796.9317</v>
+        <v>664.73851</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>612.2133</v>
+        <v>400.60558</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>5110.325</v>
+        <v>485.81451</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>988.6329</v>
+        <v>690.44801</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>990.4328</v>
+        <v>925.42399</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>4528.798</v>
+        <v>486.12689</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>7379.838</v>
+        <v>3317.9039</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>1185.442</v>
+        <v>500.00638</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>3878.557</v>
+        <v>499.50079</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>2555.064</v>
+        <v>956.08134</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>339698900</v>
+        <v>13750298.7</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>90</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>55596280000</v>
+        <v>1101050780</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>3.967351E+037</v>
+        <v>9.74737902711E+025</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>86109.91</v>
+        <v>62084.943</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>11980.01</v>
+        <v>192.15739</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>443.3604</v>
+        <v>244.09761</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>85.71197</v>
+        <v>49.879969</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>1475.406</v>
+        <v>288.52865</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>399.5085</v>
+        <v>156.36854</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>15467.27</v>
+        <v>3449.927</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>7222.108</v>
+        <v>3961.6165</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>6852.114</v>
+        <v>410.85734</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>5656841000</v>
+        <v>134007525</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>1665951000</v>
+        <v>25901246.9</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>553265.9</v>
+        <v>499536.12</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>307996500</v>
+        <v>67408.716</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>3135.354</v>
+        <v>1426.81861</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>1318.278</v>
+        <v>847.26705</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>8658481</v>
+        <v>861922.88</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>516219700</v>
+        <v>353351.25</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>796.9317</v>
+        <v>664.73851</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>585.6634</v>
+        <v>393.16539</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>5110.325</v>
+        <v>308.08768</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>988.6329</v>
+        <v>674.63901</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>990.4328</v>
+        <v>900.8225</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <v>4528.798</v>
+        <v>431.71605</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <v>7379.838</v>
+        <v>3269.90467</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>1090.793</v>
+        <v>500.00638</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>3878.557</v>
+        <v>499.39575</v>
       </c>
       <c r="AE14" s="0" t="n">
-        <v>2555.064</v>
+        <v>941.10611</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>309957200</v>
+        <v>8268198.86</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>55596280000</v>
+        <v>436446270</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>3.967351E+037</v>
+        <v>3.4413481101603E+023</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>86109.91</v>
+        <v>56265.563</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>11980.01</v>
+        <v>131.56893</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>443.3604</v>
+        <v>244.02133</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>85.71197</v>
+        <v>49.879969</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1475.406</v>
+        <v>287.83643</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>399.5085</v>
+        <v>155.69767</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>15467.27</v>
+        <v>3449.927</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>7222.108</v>
+        <v>3955.5459</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>6852.114</v>
+        <v>274.82438</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>5656841000</v>
+        <v>68996288</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>1665951000</v>
+        <v>10255750.82</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>553265.9</v>
+        <v>484276.97</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>307996500</v>
+        <v>48479.428</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>3135.354</v>
+        <v>1392.07221</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>1318.278</v>
+        <v>847.26705</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>8658481</v>
+        <v>767430.34</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>516219700</v>
+        <v>204864.88</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>796.9317</v>
+        <v>664.73851</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>585.6634</v>
+        <v>385.2463</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>5110.325</v>
+        <v>205.08424</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>988.6329</v>
+        <v>665.55217</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>990.4328</v>
+        <v>877.84408</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <v>4528.798</v>
+        <v>403.1106</v>
       </c>
       <c r="AB15" s="0" t="n">
-        <v>7272.393</v>
+        <v>3217.90139</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>1090.793</v>
+        <v>500.00638</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>3878.557</v>
+        <v>499.16817</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>2555.064</v>
+        <v>935.80779</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>309957200</v>
+        <v>3944695</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AG15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>32719123000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3.039505304E+044</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1361467.17</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>8836.572</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>335.99786</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>72.071056</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>466.88789</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>308.85846</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>5901.2908</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>8040.4053</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>29975.6</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>6464192500</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>4440462700</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>2808863.2</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>75974616.9</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>3236.3202</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>1704.7313</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>35244248.9</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>211631607</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>1324.8191</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>542.74545</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>8047.0672</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>929.98245</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>1010.31247</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>1439.9549</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>5520.8167</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>500.00706</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>499.98703</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>2650.7633</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>335579766</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>26803910000</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2.5874439129E+044</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1361467.17</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>5345.4671</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>321.53779</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>65.778051</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>394.55449</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>292.36486</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>5349.8141</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>7530.2006</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>26069.245</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>5151259500</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>3248115730</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>2494710</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>42229059.9</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>2960.739</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>1394.3933</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>26213036.9</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>95454205</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>1114.8892</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>512.75361</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>7691.0195</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>894.9117</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>994.23223</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>1247.2645</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>5009.4156</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>500.00701</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>499.98694</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>1977.4043</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>187247806</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>25123668000</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1.1054410113E+043</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1361467.17</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>4488.1514</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>317.6943</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>64.366317</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>379.8902</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>277.11226</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>4700.0125</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>7489.2391</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>14511.3362</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>4546321000</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>3150867030</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>2362265.4</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>22039198.1</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>2727.3782</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1326.11789</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>25537599.9</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>85535732</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>1063.31705</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>508.28236</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>7664.1766</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>872.74127</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>983.40866</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>1109.61386</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>4659.2187</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>500.00687</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>499.98686</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>1810.9984</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>117584987</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>23182416000</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3.3167384922E+041</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1361467.17</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3745.2149</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>315.84212</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>62.215475</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>352.61328</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>266.96176</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>4251.9736</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>7209.5801</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>10439.4633</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>4156868000</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>2194564530</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>2086845.89</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>14106445.9</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>2617.1049</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>1274.62209</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>21580315.7</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>52230988</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>1001.92781</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>487.43123</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>7516.055</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>847.647</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>973.28266</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>1005.32623</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>4424.9836</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>500.00678</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>499.98656</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>1587.9843</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>81672276</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>23045962000</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6.0393205433E+039</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1361467.17</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>3162.416</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>292.77041</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>59.041627</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>341.81083</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>238.66909</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>3743.3689</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>6224.8079</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>6058.5421</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>3492274100</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>1436434060</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>1651736.45</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>7590416.3</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>2383.9914</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>1084.20547</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>5261446.7</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>38884769</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>864.13093</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>463.07665</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>5471.2223</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>820.5764</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>950.61231</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>902.31597</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>4114.7114</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>500.00659</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>499.89871</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>1360.8679</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>63857119</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>21151281000</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1.1346199804E+038</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>80186.309</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2218.2118</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>290.95944</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>58.771071</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>332.54888</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>225.01615</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>3641.5187</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>4989.2211</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>5432.5636</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>2983388700</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1081457720</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1287893.55</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>1680376.4</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>2064.4352</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>994.18066</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>2820423.4</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>21878504.9</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>849.42153</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>452.31507</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>2750.6047</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>798.37974</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>934.72333</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>822.17974</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>4019.6526</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>500.00634</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>499.85053</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>1184.99344</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>38827012</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>20265697000</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2.934309384E+037</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>76366.91</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1838.9838</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>290.95944</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>58.600244</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>332.54888</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>217.73669</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>3641.5187</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>4654.3659</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>5007.2517</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>1999106200</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>852753800</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1200105.81</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>769676.23</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>1987.3708</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>994.18066</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>2275504.08</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>19608269.7</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>847.59818</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>446.40463</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>2472.5824</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>795.09348</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>934.72333</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>775.04488</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>3976.6861</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>500.00631</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>499.85051</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>1164.53014</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>34786003</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>16883615000</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1.978762184E+037</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>71666.883</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1361.65805</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>290.95944</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>58.387245</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>329.64389</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>209.19081</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>3641.5187</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>4551.1652</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>4851.0092</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>1633036290</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>721276200</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1058108.53</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>738879.78</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>1949.1316</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>967.24247</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>1871745.88</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>12743822.7</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>846.63643</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>439.91645</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>2132.549</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>776.38771</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>934.35127</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>750.70924</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>3976.6861</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <v>500.00631</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <v>499.85051</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <v>1128.89058</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <v>33923669.9</v>
+      </c>
+      <c r="AG9" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>12791394000</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1.28169881437E+037</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>69997.415</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1148.14286</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>286.86841</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>58.318627</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>329.64389</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>197.14617</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>3641.5187</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>4379.8069</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>4451.1143</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>1101446410</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>582464930</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>886961.03</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>386369.45</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>1815.6728</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>967.24247</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>1517608.27</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>10123298.7</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>842.05591</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>435.07999</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>1738.9572</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>770.7037</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>933.62483</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>700.50178</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>3976.3189</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>500.00631</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>499.85051</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>1128.65118</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>31690483.9</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>10100642100</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>7.374624451E+036</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>67319.018</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>853.77848</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>284.52896</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>57.870044</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>329.64389</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>188.80056</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>3641.5187</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>4286.4642</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>3659.0664</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>663027390</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>382417760</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>850272</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>274562.52</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>1739.5483</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>967.24247</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>1052978.57</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>4154826.7</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>841.54174</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>433.69751</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>1288.5906</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>762.58746</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>933.62483</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>658.81665</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>3936.3944</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>500.00631</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>499.85051</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>1060.56371</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>27593955.9</v>
+      </c>
+      <c r="AG11" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>6415276800</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>2.09250708487199E+036</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>66053.963</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>613.79269</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>280.09767</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>57.870044</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>329.64389</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>173.54499</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>3641.5187</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>4234.3063</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>1616.35771</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>420641610</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>188842320</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>802480.13</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>180162.329</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>1672.1305</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>967.24247</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>1011618.69</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>1398073.21</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>841.54174</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>426.17774</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>936.5853</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>749.18151</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>922.50178</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>609.16228</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>3930.096</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>500.00631</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <v>499.85051</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>1016.92052</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>18612135.4</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3301950600</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>6.86223822716E+032</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>63849.699</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>412.44972</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>269.23631</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>57.786214</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>329.64389</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>170.3742</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>3641.5187</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>4196.965</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>901.0315</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>258616040</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>114685696</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>714190.55</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>94886.275</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>1629.6403</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>967.24247</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>938377.12</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>821402.04</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>840.89146</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>415.49208</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>615.86911</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>731.68339</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>918.16773</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>520.0666</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>3865.4722</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>500.00631</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <v>499.85051</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>969.31056</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>11453045.7</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1397808890</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>6.9229941009803E+031</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>60619.057</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>232.21793</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>262.25431</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>57.703693</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>326.68402</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>167.41558</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>3641.5187</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>4162.7918</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>536.71765</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>160336712</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>57407912</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>677963.92</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>75887.185</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>1560.7599</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>967.24247</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>888571.75</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>423477.85</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>840.89146</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>403.40647</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>378.90509</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>708.418</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>910.01604</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>470.51564</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>3785.2389</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>500.00631</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>499.85051</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>959.13352</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>6282541.7</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>657801310</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3.76485660031E+026</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>57586.877</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>148.1596</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>258.58554</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>57.698957</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>324.88035</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>163.2538</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>3641.5187</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>4152.0473</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>341.09608</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>82755022</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>20537751.8</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>623869.31</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>48206.374</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>1491.3132</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>967.24247</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>858977.72</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>229138.323</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>839.75856</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>400.92221</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>235.81469</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>696.89174</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>891.34524</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>408.68941</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>3742.3321</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>500.00631</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>499.85051</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>945.99594</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>3606999.78</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/code/media_30.xlsx
+++ b/code/media_30.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GWO" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Hibrido_es" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Hibrido_BL" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t xml:space="preserve">milestone</t>
   </si>
@@ -239,7 +238,7 @@
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -1774,11 +1773,11 @@
   </sheetPr>
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -3287,1542 +3286,6 @@
       </c>
       <c r="AF15" s="0" t="n">
         <v>3944695</v>
-      </c>
-      <c r="AG15" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AG15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>32719123000</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>3.039505304E+044</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1361467.17</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>8836.572</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>335.99786</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>72.071056</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>466.88789</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>308.85846</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>5901.2908</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>8040.4053</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>29975.6</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>6464192500</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>4440462700</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>2808863.2</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>75974616.9</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>3236.3202</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>1704.7313</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>35244248.9</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>211631607</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>1324.8191</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>542.74545</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>8047.0672</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>929.98245</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>1010.31247</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>1439.9549</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>5520.8167</v>
-      </c>
-      <c r="AC2" s="0" t="n">
-        <v>500.00706</v>
-      </c>
-      <c r="AD2" s="0" t="n">
-        <v>499.98703</v>
-      </c>
-      <c r="AE2" s="0" t="n">
-        <v>2650.7633</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>335579766</v>
-      </c>
-      <c r="AG2" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>26803910000</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2.5874439129E+044</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1361467.17</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>5345.4671</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>321.53779</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>65.778051</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>394.55449</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>292.36486</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>5349.8141</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>7530.2006</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>26069.245</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>5151259500</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>3248115730</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>2494710</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>42229059.9</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>2960.739</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>1394.3933</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>26213036.9</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>95454205</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>1114.8892</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>512.75361</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>7691.0195</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>894.9117</v>
-      </c>
-      <c r="Z3" s="0" t="n">
-        <v>994.23223</v>
-      </c>
-      <c r="AA3" s="0" t="n">
-        <v>1247.2645</v>
-      </c>
-      <c r="AB3" s="0" t="n">
-        <v>5009.4156</v>
-      </c>
-      <c r="AC3" s="0" t="n">
-        <v>500.00701</v>
-      </c>
-      <c r="AD3" s="0" t="n">
-        <v>499.98694</v>
-      </c>
-      <c r="AE3" s="0" t="n">
-        <v>1977.4043</v>
-      </c>
-      <c r="AF3" s="0" t="n">
-        <v>187247806</v>
-      </c>
-      <c r="AG3" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>25123668000</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1.1054410113E+043</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1361467.17</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>4488.1514</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>317.6943</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>64.366317</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>379.8902</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>277.11226</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>4700.0125</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>7489.2391</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>14511.3362</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>4546321000</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>3150867030</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>2362265.4</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>22039198.1</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>2727.3782</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>1326.11789</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>25537599.9</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>85535732</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>1063.31705</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>508.28236</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>7664.1766</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>872.74127</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <v>983.40866</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>1109.61386</v>
-      </c>
-      <c r="AB4" s="0" t="n">
-        <v>4659.2187</v>
-      </c>
-      <c r="AC4" s="0" t="n">
-        <v>500.00687</v>
-      </c>
-      <c r="AD4" s="0" t="n">
-        <v>499.98686</v>
-      </c>
-      <c r="AE4" s="0" t="n">
-        <v>1810.9984</v>
-      </c>
-      <c r="AF4" s="0" t="n">
-        <v>117584987</v>
-      </c>
-      <c r="AG4" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>23182416000</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>3.3167384922E+041</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1361467.17</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>3745.2149</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>315.84212</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>62.215475</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>352.61328</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>266.96176</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>4251.9736</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>7209.5801</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>10439.4633</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>4156868000</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>2194564530</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>2086845.89</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>14106445.9</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>2617.1049</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>1274.62209</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>21580315.7</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>52230988</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>1001.92781</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>487.43123</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>7516.055</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>847.647</v>
-      </c>
-      <c r="Z5" s="0" t="n">
-        <v>973.28266</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>1005.32623</v>
-      </c>
-      <c r="AB5" s="0" t="n">
-        <v>4424.9836</v>
-      </c>
-      <c r="AC5" s="0" t="n">
-        <v>500.00678</v>
-      </c>
-      <c r="AD5" s="0" t="n">
-        <v>499.98656</v>
-      </c>
-      <c r="AE5" s="0" t="n">
-        <v>1587.9843</v>
-      </c>
-      <c r="AF5" s="0" t="n">
-        <v>81672276</v>
-      </c>
-      <c r="AG5" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>23045962000</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>6.0393205433E+039</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1361467.17</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>3162.416</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>292.77041</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>59.041627</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>341.81083</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>238.66909</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>3743.3689</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>6224.8079</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>6058.5421</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>3492274100</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>1436434060</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>1651736.45</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>7590416.3</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>2383.9914</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>1084.20547</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>5261446.7</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>38884769</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>864.13093</v>
-      </c>
-      <c r="W6" s="0" t="n">
-        <v>463.07665</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>5471.2223</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>820.5764</v>
-      </c>
-      <c r="Z6" s="0" t="n">
-        <v>950.61231</v>
-      </c>
-      <c r="AA6" s="0" t="n">
-        <v>902.31597</v>
-      </c>
-      <c r="AB6" s="0" t="n">
-        <v>4114.7114</v>
-      </c>
-      <c r="AC6" s="0" t="n">
-        <v>500.00659</v>
-      </c>
-      <c r="AD6" s="0" t="n">
-        <v>499.89871</v>
-      </c>
-      <c r="AE6" s="0" t="n">
-        <v>1360.8679</v>
-      </c>
-      <c r="AF6" s="0" t="n">
-        <v>63857119</v>
-      </c>
-      <c r="AG6" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>21151281000</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1.1346199804E+038</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>80186.309</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>2218.2118</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>290.95944</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>58.771071</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>332.54888</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>225.01615</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>3641.5187</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>4989.2211</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>5432.5636</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>2983388700</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>1081457720</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>1287893.55</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>1680376.4</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>2064.4352</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>994.18066</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>2820423.4</v>
-      </c>
-      <c r="U7" s="0" t="n">
-        <v>21878504.9</v>
-      </c>
-      <c r="V7" s="0" t="n">
-        <v>849.42153</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>452.31507</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>2750.6047</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>798.37974</v>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>934.72333</v>
-      </c>
-      <c r="AA7" s="0" t="n">
-        <v>822.17974</v>
-      </c>
-      <c r="AB7" s="0" t="n">
-        <v>4019.6526</v>
-      </c>
-      <c r="AC7" s="0" t="n">
-        <v>500.00634</v>
-      </c>
-      <c r="AD7" s="0" t="n">
-        <v>499.85053</v>
-      </c>
-      <c r="AE7" s="0" t="n">
-        <v>1184.99344</v>
-      </c>
-      <c r="AF7" s="0" t="n">
-        <v>38827012</v>
-      </c>
-      <c r="AG7" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>20265697000</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>2.934309384E+037</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>76366.91</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1838.9838</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>290.95944</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>58.600244</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>332.54888</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>217.73669</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>3641.5187</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>4654.3659</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>5007.2517</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>1999106200</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>852753800</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>1200105.81</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>769676.23</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>1987.3708</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>994.18066</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>2275504.08</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>19608269.7</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <v>847.59818</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>446.40463</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>2472.5824</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>795.09348</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>934.72333</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <v>775.04488</v>
-      </c>
-      <c r="AB8" s="0" t="n">
-        <v>3976.6861</v>
-      </c>
-      <c r="AC8" s="0" t="n">
-        <v>500.00631</v>
-      </c>
-      <c r="AD8" s="0" t="n">
-        <v>499.85051</v>
-      </c>
-      <c r="AE8" s="0" t="n">
-        <v>1164.53014</v>
-      </c>
-      <c r="AF8" s="0" t="n">
-        <v>34786003</v>
-      </c>
-      <c r="AG8" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>16883615000</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1.978762184E+037</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>71666.883</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1361.65805</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>290.95944</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>58.387245</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>329.64389</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>209.19081</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>3641.5187</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>4551.1652</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>4851.0092</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>1633036290</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>721276200</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>1058108.53</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>738879.78</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>1949.1316</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>967.24247</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>1871745.88</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>12743822.7</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>846.63643</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>439.91645</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>2132.549</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>776.38771</v>
-      </c>
-      <c r="Z9" s="0" t="n">
-        <v>934.35127</v>
-      </c>
-      <c r="AA9" s="0" t="n">
-        <v>750.70924</v>
-      </c>
-      <c r="AB9" s="0" t="n">
-        <v>3976.6861</v>
-      </c>
-      <c r="AC9" s="0" t="n">
-        <v>500.00631</v>
-      </c>
-      <c r="AD9" s="0" t="n">
-        <v>499.85051</v>
-      </c>
-      <c r="AE9" s="0" t="n">
-        <v>1128.89058</v>
-      </c>
-      <c r="AF9" s="0" t="n">
-        <v>33923669.9</v>
-      </c>
-      <c r="AG9" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>12791394000</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1.28169881437E+037</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>69997.415</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1148.14286</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>286.86841</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>58.318627</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>329.64389</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>197.14617</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>3641.5187</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>4379.8069</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>4451.1143</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>1101446410</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>582464930</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>886961.03</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>386369.45</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>1815.6728</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>967.24247</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>1517608.27</v>
-      </c>
-      <c r="U10" s="0" t="n">
-        <v>10123298.7</v>
-      </c>
-      <c r="V10" s="0" t="n">
-        <v>842.05591</v>
-      </c>
-      <c r="W10" s="0" t="n">
-        <v>435.07999</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>1738.9572</v>
-      </c>
-      <c r="Y10" s="0" t="n">
-        <v>770.7037</v>
-      </c>
-      <c r="Z10" s="0" t="n">
-        <v>933.62483</v>
-      </c>
-      <c r="AA10" s="0" t="n">
-        <v>700.50178</v>
-      </c>
-      <c r="AB10" s="0" t="n">
-        <v>3976.3189</v>
-      </c>
-      <c r="AC10" s="0" t="n">
-        <v>500.00631</v>
-      </c>
-      <c r="AD10" s="0" t="n">
-        <v>499.85051</v>
-      </c>
-      <c r="AE10" s="0" t="n">
-        <v>1128.65118</v>
-      </c>
-      <c r="AF10" s="0" t="n">
-        <v>31690483.9</v>
-      </c>
-      <c r="AG10" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>10100642100</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>7.374624451E+036</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>67319.018</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>853.77848</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>284.52896</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>57.870044</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>329.64389</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>188.80056</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>3641.5187</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>4286.4642</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>3659.0664</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>663027390</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>382417760</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>850272</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>274562.52</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>1739.5483</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>967.24247</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>1052978.57</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>4154826.7</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>841.54174</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>433.69751</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>1288.5906</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>762.58746</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <v>933.62483</v>
-      </c>
-      <c r="AA11" s="0" t="n">
-        <v>658.81665</v>
-      </c>
-      <c r="AB11" s="0" t="n">
-        <v>3936.3944</v>
-      </c>
-      <c r="AC11" s="0" t="n">
-        <v>500.00631</v>
-      </c>
-      <c r="AD11" s="0" t="n">
-        <v>499.85051</v>
-      </c>
-      <c r="AE11" s="0" t="n">
-        <v>1060.56371</v>
-      </c>
-      <c r="AF11" s="0" t="n">
-        <v>27593955.9</v>
-      </c>
-      <c r="AG11" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>6415276800</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>2.09250708487199E+036</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>66053.963</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>613.79269</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>280.09767</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>57.870044</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>329.64389</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>173.54499</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>3641.5187</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>4234.3063</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>1616.35771</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>420641610</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>188842320</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>802480.13</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>180162.329</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>1672.1305</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>967.24247</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>1011618.69</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>1398073.21</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>841.54174</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>426.17774</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>936.5853</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>749.18151</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <v>922.50178</v>
-      </c>
-      <c r="AA12" s="0" t="n">
-        <v>609.16228</v>
-      </c>
-      <c r="AB12" s="0" t="n">
-        <v>3930.096</v>
-      </c>
-      <c r="AC12" s="0" t="n">
-        <v>500.00631</v>
-      </c>
-      <c r="AD12" s="0" t="n">
-        <v>499.85051</v>
-      </c>
-      <c r="AE12" s="0" t="n">
-        <v>1016.92052</v>
-      </c>
-      <c r="AF12" s="0" t="n">
-        <v>18612135.4</v>
-      </c>
-      <c r="AG12" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>3301950600</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>6.86223822716E+032</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>63849.699</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>412.44972</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>269.23631</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>57.786214</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>329.64389</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>170.3742</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>3641.5187</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>4196.965</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>901.0315</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>258616040</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>114685696</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>714190.55</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>94886.275</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>1629.6403</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>967.24247</v>
-      </c>
-      <c r="T13" s="0" t="n">
-        <v>938377.12</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>821402.04</v>
-      </c>
-      <c r="V13" s="0" t="n">
-        <v>840.89146</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>415.49208</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>615.86911</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>731.68339</v>
-      </c>
-      <c r="Z13" s="0" t="n">
-        <v>918.16773</v>
-      </c>
-      <c r="AA13" s="0" t="n">
-        <v>520.0666</v>
-      </c>
-      <c r="AB13" s="0" t="n">
-        <v>3865.4722</v>
-      </c>
-      <c r="AC13" s="0" t="n">
-        <v>500.00631</v>
-      </c>
-      <c r="AD13" s="0" t="n">
-        <v>499.85051</v>
-      </c>
-      <c r="AE13" s="0" t="n">
-        <v>969.31056</v>
-      </c>
-      <c r="AF13" s="0" t="n">
-        <v>11453045.7</v>
-      </c>
-      <c r="AG13" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1397808890</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>6.9229941009803E+031</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>60619.057</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>232.21793</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>262.25431</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>57.703693</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>326.68402</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>167.41558</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>3641.5187</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>4162.7918</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>536.71765</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>160336712</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>57407912</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>677963.92</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>75887.185</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>1560.7599</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>967.24247</v>
-      </c>
-      <c r="T14" s="0" t="n">
-        <v>888571.75</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>423477.85</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>840.89146</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>403.40647</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>378.90509</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>708.418</v>
-      </c>
-      <c r="Z14" s="0" t="n">
-        <v>910.01604</v>
-      </c>
-      <c r="AA14" s="0" t="n">
-        <v>470.51564</v>
-      </c>
-      <c r="AB14" s="0" t="n">
-        <v>3785.2389</v>
-      </c>
-      <c r="AC14" s="0" t="n">
-        <v>500.00631</v>
-      </c>
-      <c r="AD14" s="0" t="n">
-        <v>499.85051</v>
-      </c>
-      <c r="AE14" s="0" t="n">
-        <v>959.13352</v>
-      </c>
-      <c r="AF14" s="0" t="n">
-        <v>6282541.7</v>
-      </c>
-      <c r="AG14" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>657801310</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>3.76485660031E+026</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>57586.877</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>148.1596</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>258.58554</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>57.698957</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>324.88035</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>163.2538</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>3641.5187</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>4152.0473</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>341.09608</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>82755022</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>20537751.8</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>623869.31</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>48206.374</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>1491.3132</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>967.24247</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>858977.72</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>229138.323</v>
-      </c>
-      <c r="V15" s="0" t="n">
-        <v>839.75856</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>400.92221</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>235.81469</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>696.89174</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>891.34524</v>
-      </c>
-      <c r="AA15" s="0" t="n">
-        <v>408.68941</v>
-      </c>
-      <c r="AB15" s="0" t="n">
-        <v>3742.3321</v>
-      </c>
-      <c r="AC15" s="0" t="n">
-        <v>500.00631</v>
-      </c>
-      <c r="AD15" s="0" t="n">
-        <v>499.85051</v>
-      </c>
-      <c r="AE15" s="0" t="n">
-        <v>945.99594</v>
-      </c>
-      <c r="AF15" s="0" t="n">
-        <v>3606999.78</v>
       </c>
       <c r="AG15" s="0" t="n">
         <v>30</v>

--- a/code/media_30.xlsx
+++ b/code/media_30.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GWO" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hibrido_es" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Mejora_Evolutiva" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hibrido_es" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t xml:space="preserve">milestone</t>
   </si>
@@ -235,10 +236,10 @@
   <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -349,94 +350,94 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>31607745500</v>
+        <v>92492014000</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>9.58709968852993E+047</v>
+        <v>1.85888116646669E+049</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1031046.22</v>
+        <v>213861.17</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>7183.8238</v>
+        <v>28098.003</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>380.220935</v>
+        <v>598.45408</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>83.6418415</v>
+        <v>110.471737</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>586.33511</v>
+        <v>1763.9654</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>319.0743</v>
+        <v>496.74796</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>12028.2859</v>
+        <v>23395.921</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>8991.47065</v>
+        <v>8558.05</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>42185.1942</v>
+        <v>17762.3563</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>7193811450</v>
+        <v>19035686400</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>3702060600</v>
+        <v>15263444800</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>3256604.345</v>
+        <v>12493464.1</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>74346852</v>
+        <v>1908565310</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>3254.19085</v>
+        <v>6025.0763</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>1783.9893</v>
+        <v>6046.0441</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>84109053.5</v>
+        <v>95021048</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>141956276.5</v>
+        <v>2432284980</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>1329.1704</v>
+        <v>1274.0103</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>563.528065</v>
+        <v>737.94919</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>9045.39925</v>
+        <v>8626.489</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>920.10828</v>
+        <v>1397.1282</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>1026.970705</v>
+        <v>1497.0555</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>1549.1178</v>
+        <v>7989.9787</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>5687.9934</v>
+        <v>10705.1992</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>500.007065</v>
+        <v>1691.9359</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>500.00688</v>
+        <v>7081.7556</v>
       </c>
       <c r="AE2" s="0" t="n">
-        <v>2511.7177</v>
+        <v>4889.6936</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>216801452</v>
+        <v>1864201990</v>
       </c>
       <c r="AG2" s="0" t="n">
         <v>30</v>
@@ -450,94 +451,94 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>28073798500</v>
+        <v>88314902000</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>2.07774991241393E+046</v>
+        <v>3.742187133757E+045</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1031046.22</v>
+        <v>192688.58</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>5341.31615</v>
+        <v>23545.052</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>355.62749</v>
+        <v>576.28065</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>78.3299695</v>
+        <v>106.753023</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>554.693975</v>
+        <v>1658.5458</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>303.975645</v>
+        <v>483.6902</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>8666.99985</v>
+        <v>21425.556</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>8720.3557</v>
+        <v>8353.4816</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>27334.5347</v>
+        <v>14953.005</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>6106543650</v>
+        <v>17857884400</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>3325351800</v>
+        <v>14084287100</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>2828371.86</v>
+        <v>11152753.6</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>49074045</v>
+        <v>1803879310</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>2913.07495</v>
+        <v>5893.4598</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>1549.961955</v>
+        <v>5304.4467</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>41774997.2</v>
+        <v>78265622.9</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>122628673</v>
+        <v>1952438070</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>1196.0387</v>
+        <v>1177.2259</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>541.528885</v>
+        <v>707.16862</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>8792.5412</v>
+        <v>8448.3631</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>872.807525</v>
+        <v>1382.1028</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>1004.005665</v>
+        <v>1453.9062</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>1265.96818</v>
+        <v>7162.9944</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>5184.9893</v>
+        <v>10367.9778</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>500.00703</v>
+        <v>1532.5032</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>499.99409</v>
+        <v>6583.5882</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>2155.40605</v>
+        <v>4240.3715</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>178060448</v>
+        <v>1582430090</v>
       </c>
       <c r="AG3" s="0" t="n">
         <v>30</v>
@@ -551,94 +552,94 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>27364802000</v>
+        <v>87731816000</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.05414556109302E+045</v>
+        <v>2.25984237216871E+045</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1031046.22</v>
+        <v>185415.08</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>4934.6938</v>
+        <v>22331.301</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>348.54892</v>
+        <v>543.02142</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>75.0274005</v>
+        <v>106.278273</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>532.2482</v>
+        <v>1643.9261</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>296.46976</v>
+        <v>470.63254</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>7920.21175</v>
+        <v>20639.523</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>8518.67995</v>
+        <v>8315.5587</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>20158.7707</v>
+        <v>13699.297</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>5229446750</v>
+        <v>16250671300</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>3036719250</v>
+        <v>13158327200</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>2513997.36</v>
+        <v>10419609.2</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>42840105.5</v>
+        <v>1617705020</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>2760.53585</v>
+        <v>5645.3275</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>1410.179905</v>
+        <v>4578.5908</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>25126762.7</v>
+        <v>70086485.9</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>119035890.5</v>
+        <v>1680917200</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>1082.3368</v>
+        <v>1148.0541</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>531.53263</v>
+        <v>707.16862</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>8589.55795</v>
+        <v>8185.1118</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>856.803925</v>
+        <v>1376.4857</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>990.608115</v>
+        <v>1450.3721</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>1186.31639</v>
+        <v>6807.6304</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>5009.103</v>
+        <v>10257.4583</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>500.006995</v>
+        <v>1499.6025</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>499.99407</v>
+        <v>6321.9451</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>1823.58895</v>
+        <v>4145.2298</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>123880537</v>
+        <v>1434531360</v>
       </c>
       <c r="AG4" s="0" t="n">
         <v>30</v>
@@ -652,94 +653,94 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>26518325000</v>
+        <v>82307748000</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>9.4970242771485E+041</v>
+        <v>1.91874841216871E+045</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1031046.22</v>
+        <v>157887.247</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4446.9575</v>
+        <v>21694.871</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>340.11376</v>
+        <v>541.46735</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>72.782219</v>
+        <v>105.077144</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>511.53104</v>
+        <v>1572.9939</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>282.87299</v>
+        <v>454.40516</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>7514.4624</v>
+        <v>19707.208</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>7938.649</v>
+        <v>8103.0471</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>14989.05845</v>
+        <v>12170.5115</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>5044436350</v>
+        <v>15580917300</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>2841805690</v>
+        <v>12843506200</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>2155034.11</v>
+        <v>9984618.4</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>33290085.5</v>
+        <v>1365364780</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>2611.58385</v>
+        <v>5498.2566</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>1303.120605</v>
+        <v>4510.745</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>16622490.2</v>
+        <v>44464962.9</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>88297294.5</v>
+        <v>1254868800</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>1019.32707</v>
+        <v>1066.84518</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>518.9457</v>
+        <v>704.02931</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>8024.24585</v>
+        <v>7903.9943</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>840.76757</v>
+        <v>1337.0425</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>977.835165</v>
+        <v>1445.3431</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>1154.995655</v>
+        <v>6252.8593</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>4894.64495</v>
+        <v>9807.3016</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>500.006915</v>
+        <v>1493.7019</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>499.99394</v>
+        <v>6157.9822</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <v>1677.35715</v>
+        <v>3943.9823</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>95427440</v>
+        <v>1388184060</v>
       </c>
       <c r="AG5" s="0" t="n">
         <v>30</v>
@@ -753,94 +754,94 @@
         <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>26155710000</v>
+        <v>73571389000</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5.8832267896285E+041</v>
+        <v>7.34789418737235E+044</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1012593.1485</v>
+        <v>151992.827</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4152.4207</v>
+        <v>20731.255</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>337.2294</v>
+        <v>526.17717</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>71.6860175</v>
+        <v>100.070035</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>505.8203</v>
+        <v>1410.9835</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>276.70052</v>
+        <v>434.13227</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>7231.61655</v>
+        <v>18423.588</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>6759.84225</v>
+        <v>7968.8091</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>7702.48745</v>
+        <v>10663.6933</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>4691428050</v>
+        <v>14890719000</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>2649308040</v>
+        <v>11108897000</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>1887999.21</v>
+        <v>5684705</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>19357858.5</v>
+        <v>996362280</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>2479.0831</v>
+        <v>5476.6638</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>1214.08626</v>
+        <v>3964.1326</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>14639536.95</v>
+        <v>27389672.7</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>82811841</v>
+        <v>1132068010</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>966.17496</v>
+        <v>1039.35978</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>515.39754</v>
+        <v>689.79926</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>5962.0739</v>
+        <v>7481.6287</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>825.913845</v>
+        <v>1318.5688</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>976.923085</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>1109.97283</v>
+        <v>5563.2075</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>4831.0065</v>
+        <v>9168.1918</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>500.00667</v>
+        <v>1445.59053</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>499.95919</v>
+        <v>5722.2568</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>1562.89945</v>
+        <v>3859.9821</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>74865558.5</v>
+        <v>1027887240</v>
       </c>
       <c r="AG6" s="0" t="n">
         <v>30</v>
@@ -854,94 +855,94 @@
         <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>26155710000</v>
+        <v>70506904000</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>5.8832258920285E+041</v>
+        <v>7.28181874488677E+044</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>87991.49</v>
+        <v>129708.364</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>4093.82585</v>
+        <v>18615.945</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>337.2294</v>
+        <v>505.63719</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>71.6860175</v>
+        <v>95.451755</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>505.8203</v>
+        <v>1346.0735</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>276.67293</v>
+        <v>417.22052</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>7230.9804</v>
+        <v>17122.764</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>6742.56685</v>
+        <v>7719.9431</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>7634.2238</v>
+        <v>8962.5354</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>4691428050</v>
+        <v>14597340400</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>2649308040</v>
+        <v>10943300700</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>1871509.36</v>
+        <v>5024246.97</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>17783913.75</v>
+        <v>919482180</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>2456.08025</v>
+        <v>5244.0961</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>1214.08626</v>
+        <v>3763.028</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>14506907.45</v>
+        <v>24688158</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>82811841</v>
+        <v>951962320</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>965.49019</v>
+        <v>953.59902</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>514.70272</v>
+        <v>661.86343</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>5867.7293</v>
+        <v>7342.3065</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>825.913845</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>976.923085</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <v>1105.30013</v>
+        <v>4539.0277</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>4831.0065</v>
+        <v>8977.5039</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>500.00659</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>499.959145</v>
+        <v>5581.3896</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>1559.3817</v>
+        <v>3611.6804</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>70594418</v>
+        <v>981734140</v>
       </c>
       <c r="AG7" s="0" t="n">
         <v>30</v>
@@ -955,94 +956,94 @@
         <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>26155710000</v>
+        <v>67807370000</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5.8832258920285E+041</v>
+        <v>6.57678814505381E+044</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>87991.49</v>
+        <v>120197.02</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4093.82585</v>
+        <v>18502.931</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>337.2294</v>
+        <v>501.75838</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>71.6860175</v>
+        <v>94.609376</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>505.8203</v>
+        <v>1274.8391</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>276.67293</v>
+        <v>403.98661</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>7230.9804</v>
+        <v>16766.69</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>6742.56685</v>
+        <v>7602.7255</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>7634.2238</v>
+        <v>8618.2772</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>4691428050</v>
+        <v>14435976200</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>2649308040</v>
+        <v>10838198100</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>1871030.41</v>
+        <v>5024246.97</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>17587588.7</v>
+        <v>869555490</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>2456.08025</v>
+        <v>5244.0961</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>1214.08626</v>
+        <v>3714.5659</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>14506907.45</v>
+        <v>21116629</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>82811841</v>
+        <v>933145140</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>965.49019</v>
+        <v>911.48012</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>514.70272</v>
+        <v>660.83855</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>5865.2297</v>
+        <v>7293.3312</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>825.913845</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>976.923085</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <v>1105.30013</v>
+        <v>4239.3915</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <v>4831.0065</v>
+        <v>8753.5742</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>500.006585</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>499.959145</v>
+        <v>5473.8493</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>1559.3817</v>
+        <v>3599.8981</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>70594418</v>
+        <v>981734140</v>
       </c>
       <c r="AG8" s="0" t="n">
         <v>30</v>
@@ -1056,94 +1057,94 @@
         <v>40</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>26155710000</v>
+        <v>67347632000</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>5.8832258920285E+041</v>
+        <v>6.5767881385894E+044</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>87991.49</v>
+        <v>117573.62</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>4093.82585</v>
+        <v>18147.062</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>337.2294</v>
+        <v>499.07672</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>71.6860175</v>
+        <v>93.864532</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>505.8203</v>
+        <v>1233.06262</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>276.67293</v>
+        <v>399.24014</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>7230.9804</v>
+        <v>16289.894</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>6742.56685</v>
+        <v>7601.263</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>7634.2238</v>
+        <v>8618.2772</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>4691428050</v>
+        <v>14435976200</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>2649308040</v>
+        <v>10838198100</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>1870900.61</v>
+        <v>4998087.17</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>17502809.85</v>
+        <v>851329950</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>2456.08025</v>
+        <v>5244.0961</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>1214.08626</v>
+        <v>3714.5659</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>14506907.45</v>
+        <v>21116629</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>82811841</v>
+        <v>925372940</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>965.49019</v>
+        <v>911.48012</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>514.70272</v>
+        <v>659.73578</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>5863.4013</v>
+        <v>7282.5859</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>825.913845</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>976.923085</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>1105.30013</v>
+        <v>4075.7049</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <v>4831.0065</v>
+        <v>8684.8085</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>500.006585</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>499.959145</v>
+        <v>5447.5007</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>1559.3817</v>
+        <v>3580.3949</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>70594418</v>
+        <v>981734140</v>
       </c>
       <c r="AG9" s="0" t="n">
         <v>30</v>
@@ -1157,94 +1158,94 @@
         <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>26155710000</v>
+        <v>66866667000</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>5.8832258920285E+041</v>
+        <v>6.5767881385894E+044</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>87991.49</v>
+        <v>113481.314</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>4093.82585</v>
+        <v>18147.062</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>337.2294</v>
+        <v>487.85754</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>71.6860175</v>
+        <v>93.851842</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>505.8203</v>
+        <v>1223.56432</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>276.67293</v>
+        <v>391.74228</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>7230.9804</v>
+        <v>16018.996</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>6742.56685</v>
+        <v>7431.483</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>7634.2238</v>
+        <v>8618.2772</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>4691428050</v>
+        <v>14435976200</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>2649308040</v>
+        <v>10838198100</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>1870900.61</v>
+        <v>4998087.17</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>17484714.9</v>
+        <v>842821402</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>2456.08025</v>
+        <v>5244.0961</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>1214.08626</v>
+        <v>3714.5659</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>14506907.45</v>
+        <v>21116629</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>82811841</v>
+        <v>919776111</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>965.49019</v>
+        <v>897.89683</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>514.70272</v>
+        <v>659.73578</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>5863.4013</v>
+        <v>7282.5859</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>825.913845</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>976.923085</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>1105.30013</v>
+        <v>4075.7049</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>4831.0065</v>
+        <v>8684.8085</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>500.006585</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>499.959145</v>
+        <v>5429.9931</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>1559.3817</v>
+        <v>3580.3949</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>70594418</v>
+        <v>981734140</v>
       </c>
       <c r="AG10" s="0" t="n">
         <v>30</v>
@@ -1258,94 +1259,94 @@
         <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>26155710000</v>
+        <v>66866667000</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>5.8832258920285E+041</v>
+        <v>6.5767881385894E+044</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>87991.49</v>
+        <v>113481.314</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>4093.82585</v>
+        <v>18147.062</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>337.2294</v>
+        <v>487.85754</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>71.6860175</v>
+        <v>93.374824</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>505.8203</v>
+        <v>1223.56432</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>276.67293</v>
+        <v>391.74228</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>7230.9804</v>
+        <v>15891.422</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>6742.56685</v>
+        <v>7429.5096</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>7634.2238</v>
+        <v>8598.3324</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>4691428050</v>
+        <v>14435976200</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>2649308040</v>
+        <v>10838198100</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>1870886.66</v>
+        <v>4998087.17</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>17458704.4</v>
+        <v>842821402</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>2456.08025</v>
+        <v>5244.0961</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>1214.08626</v>
+        <v>3714.5659</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>14506907.45</v>
+        <v>21116629</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>82811841</v>
+        <v>919776111</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>965.49019</v>
+        <v>897.89683</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>514.70272</v>
+        <v>659.73578</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>5863.4013</v>
+        <v>7282.5859</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>825.913845</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>976.923085</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>1105.30013</v>
+        <v>4075.7049</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>4831.0065</v>
+        <v>8684.8085</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>500.006585</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>499.959145</v>
+        <v>5429.9931</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>1559.3817</v>
+        <v>3580.3949</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>70594418</v>
+        <v>981734140</v>
       </c>
       <c r="AG11" s="0" t="n">
         <v>30</v>
@@ -1359,94 +1360,94 @@
         <v>70</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>26155710000</v>
+        <v>66866667000</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>5.8832258920285E+041</v>
+        <v>6.5767881385894E+044</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>87991.49</v>
+        <v>113481.314</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>4093.82585</v>
+        <v>18147.062</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>337.2294</v>
+        <v>487.85754</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>71.6860175</v>
+        <v>93.374824</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>505.8203</v>
+        <v>1223.56432</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>276.67293</v>
+        <v>391.74228</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>7230.9804</v>
+        <v>15251.3041</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>6742.56685</v>
+        <v>7326.1642</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>7634.2238</v>
+        <v>8598.3324</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>4691428050</v>
+        <v>14435976200</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>2649308040</v>
+        <v>10838198100</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>1870870.01</v>
+        <v>4998087.17</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>17404764.4</v>
+        <v>842821402</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>2456.08025</v>
+        <v>5244.0961</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>1214.08626</v>
+        <v>3714.5659</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>14506907.45</v>
+        <v>21116629</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>82811841</v>
+        <v>919776111</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>965.49019</v>
+        <v>897.89683</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>514.70272</v>
+        <v>659.73578</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>5861.3245</v>
+        <v>7282.5859</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>825.913845</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>976.923085</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <v>1105.30013</v>
+        <v>4075.7049</v>
       </c>
       <c r="AB12" s="0" t="n">
-        <v>4831.0065</v>
+        <v>8684.8085</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>500.006585</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>499.959145</v>
+        <v>5429.9931</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <v>1559.3817</v>
+        <v>3580.3949</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>70594418</v>
+        <v>981734140</v>
       </c>
       <c r="AG12" s="0" t="n">
         <v>30</v>
@@ -1460,94 +1461,94 @@
         <v>80</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>26155710000</v>
+        <v>66866667000</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>5.8832258920285E+041</v>
+        <v>6.5767881385894E+044</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>87991.49</v>
+        <v>112914.916</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>4093.82585</v>
+        <v>18147.062</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>337.2294</v>
+        <v>487.85754</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>71.6860175</v>
+        <v>93.374824</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>505.8203</v>
+        <v>1223.56432</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>276.67293</v>
+        <v>391.33484</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>7230.9804</v>
+        <v>15251.3041</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>6742.56685</v>
+        <v>7321.416</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>7634.2238</v>
+        <v>8598.3324</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>4691428050</v>
+        <v>14435976200</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>2649308040</v>
+        <v>10838198100</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>1870855.11</v>
+        <v>4998087.17</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>17391551.9</v>
+        <v>842821402</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>2456.08025</v>
+        <v>5244.0961</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>1214.08626</v>
+        <v>3714.5659</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>14506907.45</v>
+        <v>21116629</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>82811841</v>
+        <v>919776111</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>965.49019</v>
+        <v>897.89683</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>514.70272</v>
+        <v>659.73578</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>5861.3245</v>
+        <v>7282.5859</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>825.913845</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>976.923085</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>1105.30013</v>
+        <v>4075.7049</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>4831.0065</v>
+        <v>8684.8085</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>500.006585</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>499.959145</v>
+        <v>5429.9931</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>1559.3817</v>
+        <v>3580.3949</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>70594418</v>
+        <v>981734140</v>
       </c>
       <c r="AG13" s="0" t="n">
         <v>30</v>
@@ -1561,94 +1562,94 @@
         <v>90</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>26155710000</v>
+        <v>66866667000</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>5.8832258920285E+041</v>
+        <v>6.5767881385894E+044</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>87991.49</v>
+        <v>112914.916</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>4093.82585</v>
+        <v>18147.062</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>337.2294</v>
+        <v>487.85754</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>71.6860175</v>
+        <v>93.374824</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>505.8203</v>
+        <v>1223.56432</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>276.67293</v>
+        <v>391.33484</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>7230.9804</v>
+        <v>15053.7061</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>6742.56685</v>
+        <v>7321.416</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>7634.2238</v>
+        <v>8598.3324</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>4691428050</v>
+        <v>14435976200</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>2649308040</v>
+        <v>10838198100</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>1870848.91</v>
+        <v>4998087.17</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>17373970.5</v>
+        <v>842821402</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>2456.08025</v>
+        <v>5244.0961</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>1214.08626</v>
+        <v>3714.5659</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>14506907.45</v>
+        <v>21116629</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>82811841</v>
+        <v>919776111</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>965.49019</v>
+        <v>897.89683</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>514.70272</v>
+        <v>659.73578</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>5860.118</v>
+        <v>7282.5859</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>825.913845</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>976.923085</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <v>1105.30013</v>
+        <v>4075.7049</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <v>4831.0065</v>
+        <v>8684.8085</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>500.006585</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>499.959145</v>
+        <v>5429.9931</v>
       </c>
       <c r="AE14" s="0" t="n">
-        <v>1559.3817</v>
+        <v>3580.3949</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>70594418</v>
+        <v>981734140</v>
       </c>
       <c r="AG14" s="0" t="n">
         <v>30</v>
@@ -1662,94 +1663,94 @@
         <v>100</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>26155710000</v>
+        <v>66866667000</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>5.8832258920285E+041</v>
+        <v>6.5767881385894E+044</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>87991.49</v>
+        <v>112914.916</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>4093.82585</v>
+        <v>18147.062</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>337.2294</v>
+        <v>487.85754</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>71.6860175</v>
+        <v>93.374824</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>505.8203</v>
+        <v>1223.56432</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>276.67293</v>
+        <v>391.33484</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>7230.9804</v>
+        <v>15053.7061</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>6742.56685</v>
+        <v>7321.416</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>7634.2238</v>
+        <v>8598.3324</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>4691428050</v>
+        <v>14435976200</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>2649308040</v>
+        <v>10838198100</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>1870842.61</v>
+        <v>4998087.17</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>17370048.05</v>
+        <v>842821402</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>2456.08025</v>
+        <v>5244.0961</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>1214.08626</v>
+        <v>3714.5659</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>14506907.45</v>
+        <v>21116629</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>82811841</v>
+        <v>919776111</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>965.49019</v>
+        <v>897.89683</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>514.70272</v>
+        <v>659.73578</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>5859.889</v>
+        <v>7282.5859</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>825.913845</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>976.923085</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <v>1105.30013</v>
+        <v>4075.7049</v>
       </c>
       <c r="AB15" s="0" t="n">
-        <v>4831.0065</v>
+        <v>8684.8085</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>500.006585</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>499.959145</v>
+        <v>5429.9931</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>1559.3817</v>
+        <v>3580.3949</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>70594418</v>
+        <v>981734140</v>
       </c>
       <c r="AG15" s="0" t="n">
         <v>30</v>
@@ -1773,11 +1774,11 @@
   </sheetPr>
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -1885,94 +1886,94 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>33249356000</v>
+        <v>92492014000</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.4945197575918E+049</v>
+        <v>1.85888116646669E+049</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>998702.31</v>
+        <v>213861.17</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>6941.2631</v>
+        <v>28098.003</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>316.89678</v>
+        <v>598.45408</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>63.384558</v>
+        <v>110.471737</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>434.64133</v>
+        <v>1763.9654</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>272.64428</v>
+        <v>496.74796</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>6380.7744</v>
+        <v>23395.921</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>7653.8223</v>
+        <v>8558.05</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>30624.5889</v>
+        <v>17762.3563</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>6560548800</v>
+        <v>19035686400</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>2961351630</v>
+        <v>15263444800</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>1800151.78</v>
+        <v>12493464.1</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>42939115.7</v>
+        <v>1908565310</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>3139.8938</v>
+        <v>6025.0763</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>1706.8511</v>
+        <v>6046.0441</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>69099207</v>
+        <v>95021048</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>111591828</v>
+        <v>2432284980</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>1095.61973</v>
+        <v>1274.0103</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>561.16956</v>
+        <v>737.94919</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>8378.2523</v>
+        <v>8626.489</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>923.98847</v>
+        <v>1397.1282</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>1015.03787</v>
+        <v>1497.0555</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>1394.4447</v>
+        <v>7989.9787</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>5536.1087</v>
+        <v>10705.1992</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>500.00708</v>
+        <v>1691.9359</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>499.9832</v>
+        <v>7081.7556</v>
       </c>
       <c r="AE2" s="0" t="n">
-        <v>2774.0256</v>
+        <v>4889.6936</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>256885876</v>
+        <v>1864201990</v>
       </c>
       <c r="AG2" s="0" t="n">
         <v>30</v>
@@ -1986,94 +1987,94 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>26112724000</v>
+        <v>88314902000</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.8157009279494E+047</v>
+        <v>3.742187133757E+045</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>998702.31</v>
+        <v>192688.58</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>5353.6436</v>
+        <v>23545.052</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>302.88981</v>
+        <v>576.28065</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>59.420527</v>
+        <v>106.753023</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>401.84951</v>
+        <v>1658.5458</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>242.3126</v>
+        <v>483.6902</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>4511.3352</v>
+        <v>21425.556</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>7274.9495</v>
+        <v>8353.4816</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>30544.6379</v>
+        <v>14953.005</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>5292634400</v>
+        <v>17857884400</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>2179030530</v>
+        <v>14084287100</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>1493379.82</v>
+        <v>11152753.6</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>29533145.5</v>
+        <v>1803879310</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>2797.5921</v>
+        <v>5893.4598</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>1542.4663</v>
+        <v>5304.4467</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>42948714.9</v>
+        <v>78265622.9</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>80525559</v>
+        <v>1952438070</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>906.41752</v>
+        <v>1177.2259</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>514.29289</v>
+        <v>707.16862</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>7635.4189</v>
+        <v>8448.3631</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>833.96618</v>
+        <v>1382.1028</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>978.20019</v>
+        <v>1453.9062</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>1205.88758</v>
+        <v>7162.9944</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>4653.8002</v>
+        <v>10367.9778</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>500.00705</v>
+        <v>1532.5032</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>499.98314</v>
+        <v>6583.5882</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>2042.3051</v>
+        <v>4240.3715</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>195776647</v>
+        <v>1582430090</v>
       </c>
       <c r="AG3" s="0" t="n">
         <v>30</v>
@@ -2087,94 +2088,94 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>24641706000</v>
+        <v>87731816000</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>5.16256883040524E+044</v>
+        <v>2.25984237216871E+045</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>998702.31</v>
+        <v>185415.08</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>4044.4968</v>
+        <v>22331.301</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>296.66544</v>
+        <v>543.02142</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>59.056995</v>
+        <v>106.278273</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>379.98488</v>
+        <v>1643.9261</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>226.0805</v>
+        <v>470.63254</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>4164.489</v>
+        <v>20639.523</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>7011.992</v>
+        <v>8315.5587</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>20661.2469</v>
+        <v>13699.297</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>4535859900</v>
+        <v>16250671300</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>2067883230</v>
+        <v>13158327200</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>1434977.42</v>
+        <v>10419609.2</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>10991045</v>
+        <v>1617705020</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>2481.1808</v>
+        <v>5645.3275</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>1443.9413</v>
+        <v>4578.5908</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>33530289.9</v>
+        <v>70086485.9</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>73356959</v>
+        <v>1680917200</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>816.3364</v>
+        <v>1148.0541</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>490.84782</v>
+        <v>707.16862</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>7460.3243</v>
+        <v>8185.1118</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>819.44864</v>
+        <v>1376.4857</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>967.9629</v>
+        <v>1450.3721</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>1025.39758</v>
+        <v>6807.6304</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>4637.2093</v>
+        <v>10257.4583</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>500.007</v>
+        <v>1499.6025</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>499.98312</v>
+        <v>6321.9451</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>1817.8015</v>
+        <v>4145.2298</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>119009004</v>
+        <v>1434531360</v>
       </c>
       <c r="AG4" s="0" t="n">
         <v>30</v>
@@ -2188,94 +2189,94 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>22883949000</v>
+        <v>82307748000</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2.46972842927651E+044</v>
+        <v>1.91874841216871E+045</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>998702.31</v>
+        <v>157887.247</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3124.5049</v>
+        <v>21694.871</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>283.13932</v>
+        <v>541.46735</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>54.120115</v>
+        <v>105.077144</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>358.39862</v>
+        <v>1572.9939</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>220.47996</v>
+        <v>454.40516</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>4014.2676</v>
+        <v>19707.208</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>6674.4248</v>
+        <v>8103.0471</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>14893.6783</v>
+        <v>12170.5115</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>3925418700</v>
+        <v>15580917300</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>1900288230</v>
+        <v>12843506200</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>1226485.32</v>
+        <v>9984618.4</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>8884478.6</v>
+        <v>1365364780</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>2345.6635</v>
+        <v>5498.2566</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>1289.544</v>
+        <v>4510.745</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>15191367.3</v>
+        <v>44464962.9</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>46572393</v>
+        <v>1254868800</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>762.04251</v>
+        <v>1066.84518</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>480.61626</v>
+        <v>704.02931</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>6774.1717</v>
+        <v>7903.9943</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>804.85703</v>
+        <v>1337.0425</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>957.4039</v>
+        <v>1445.3431</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>954.87383</v>
+        <v>6252.8593</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>4078.4484</v>
+        <v>9807.3016</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>500.00691</v>
+        <v>1493.7019</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>499.98306</v>
+        <v>6157.9822</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <v>1553.5192</v>
+        <v>3943.9823</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>68659844</v>
+        <v>1388184060</v>
       </c>
       <c r="AG5" s="0" t="n">
         <v>30</v>
@@ -2289,94 +2290,94 @@
         <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>21098540000</v>
+        <v>73571389000</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2.14457357134E+039</v>
+        <v>7.34789418737235E+044</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>998702.31</v>
+        <v>151992.827</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2587.5989</v>
+        <v>20731.255</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>263.94464</v>
+        <v>526.17717</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>49.879969</v>
+        <v>100.070035</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>305.42169</v>
+        <v>1410.9835</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>204.95417</v>
+        <v>434.13227</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>3548.5119</v>
+        <v>18423.588</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>5715.529</v>
+        <v>7968.8091</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>7015.2874</v>
+        <v>10663.6933</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>3453148100</v>
+        <v>14890719000</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>1302859900</v>
+        <v>11108897000</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>1096947.36</v>
+        <v>5684705</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>3616306.48</v>
+        <v>996362280</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>2166.3875</v>
+        <v>5476.6638</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>988.52529</v>
+        <v>3964.1326</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>5515948.17</v>
+        <v>27389672.7</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>30944137.7</v>
+        <v>1132068010</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>696.65143</v>
+        <v>1039.35978</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>451.59515</v>
+        <v>689.79926</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>4305.702</v>
+        <v>7481.6287</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>782.41157</v>
+        <v>1318.5688</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>941.52627</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>854.75028</v>
+        <v>5563.2075</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>3895.5384</v>
+        <v>9168.1918</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>500.0067</v>
+        <v>1445.59053</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>499.85404</v>
+        <v>5722.2568</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>1344.6344</v>
+        <v>3859.9821</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>50186371</v>
+        <v>1027887240</v>
       </c>
       <c r="AG6" s="0" t="n">
         <v>30</v>
@@ -2390,94 +2391,94 @@
         <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>19807453000</v>
+        <v>70506904000</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>5.70832885E+036</v>
+        <v>7.28181874488677E+044</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>95692.213</v>
+        <v>129708.364</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1823.2639</v>
+        <v>18615.945</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>255.79537</v>
+        <v>505.63719</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>49.879969</v>
+        <v>95.451755</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>293.84214</v>
+        <v>1346.0735</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>190.63067</v>
+        <v>417.22052</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>3449.927</v>
+        <v>17122.764</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>4447.8814</v>
+        <v>7719.9431</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>5240.1971</v>
+        <v>8962.5354</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>2776895700</v>
+        <v>14597340400</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>973698320</v>
+        <v>10943300700</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>883168.34</v>
+        <v>5024246.97</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>782322.49</v>
+        <v>919482180</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>2001.6859</v>
+        <v>5244.0961</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>905.20146</v>
+        <v>3763.028</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>2620138.56</v>
+        <v>24688158</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>16202316.1</v>
+        <v>951962320</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>667.397</v>
+        <v>953.59902</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>430.57855</v>
+        <v>661.86343</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>2478.0524</v>
+        <v>7342.3065</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>746.73794</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>935.39816</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <v>785.95247</v>
+        <v>4539.0277</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>3753.8083</v>
+        <v>8977.5039</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>500.00645</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>499.7353</v>
+        <v>5581.3896</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>1138.31227</v>
+        <v>3611.6804</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>38352845</v>
+        <v>981734140</v>
       </c>
       <c r="AG7" s="0" t="n">
         <v>30</v>
@@ -2491,94 +2492,94 @@
         <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>17758345000</v>
+        <v>67807370000</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1.78286064E+036</v>
+        <v>6.57678814505381E+044</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>77913.047</v>
+        <v>120197.02</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1635.3063</v>
+        <v>18502.931</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>250.45926</v>
+        <v>501.75838</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>49.879969</v>
+        <v>94.609376</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>291.19946</v>
+        <v>1274.8391</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>181.8088</v>
+        <v>403.98661</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>3449.927</v>
+        <v>16766.69</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>4254.8735</v>
+        <v>7602.7255</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>4578.5432</v>
+        <v>8618.2772</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>1688327700</v>
+        <v>14435976200</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>745137110</v>
+        <v>10838198100</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>690460.62</v>
+        <v>5024246.97</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>452664.11</v>
+        <v>869555490</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>1817.2315</v>
+        <v>5244.0961</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>847.26705</v>
+        <v>3714.5659</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>1785940.05</v>
+        <v>21116629</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>7969194.4</v>
+        <v>933145140</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>666.45598</v>
+        <v>911.48012</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>423.84656</v>
+        <v>660.83855</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>2114.1032</v>
+        <v>7293.3312</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>732.89086</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>935.39816</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <v>748.91452</v>
+        <v>4239.3915</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <v>3697.7669</v>
+        <v>8753.5742</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>500.00641</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>499.69417</v>
+        <v>5473.8493</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>1100.54289</v>
+        <v>3599.8981</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>35332770</v>
+        <v>981734140</v>
       </c>
       <c r="AG8" s="0" t="n">
         <v>30</v>
@@ -2592,94 +2593,94 @@
         <v>40</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>15248528000</v>
+        <v>67347632000</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3.440930637E+035</v>
+        <v>6.5767881385894E+044</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>72022.926</v>
+        <v>117573.62</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1255.515</v>
+        <v>18147.062</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>250.45926</v>
+        <v>499.07672</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>49.879969</v>
+        <v>93.864532</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>291.19946</v>
+        <v>1233.06262</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>178.2467</v>
+        <v>399.24014</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>3449.927</v>
+        <v>16289.894</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>4159.6963</v>
+        <v>7601.263</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>3834.1588</v>
+        <v>8618.2772</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>1435694800</v>
+        <v>14435976200</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>591315050</v>
+        <v>10838198100</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>617165</v>
+        <v>4998087.17</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>293393.25</v>
+        <v>851329950</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>1755.7649</v>
+        <v>5244.0961</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>847.26705</v>
+        <v>3714.5659</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>1525117.71</v>
+        <v>21116629</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>5536330.6</v>
+        <v>925372940</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>664.73851</v>
+        <v>911.48012</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>420.55394</v>
+        <v>659.73578</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>1874.0828</v>
+        <v>7282.5859</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>730.798</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>935.39816</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>704.79359</v>
+        <v>4075.7049</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <v>3667.6675</v>
+        <v>8684.8085</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>500.00639</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>499.69417</v>
+        <v>5447.5007</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>1052.15919</v>
+        <v>3580.3949</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>30651138</v>
+        <v>981734140</v>
       </c>
       <c r="AG9" s="0" t="n">
         <v>30</v>
@@ -2693,94 +2694,94 @@
         <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>11515290300</v>
+        <v>66866667000</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1.502452585E+035</v>
+        <v>6.5767881385894E+044</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>70409.794</v>
+        <v>113481.314</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>935.40408</v>
+        <v>18147.062</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>250.13586</v>
+        <v>487.85754</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>49.879969</v>
+        <v>93.851842</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>291.19946</v>
+        <v>1223.56432</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>171.4967</v>
+        <v>391.74228</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>3449.927</v>
+        <v>16018.996</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>4111.3787</v>
+        <v>7431.483</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>3077.4304</v>
+        <v>8618.2772</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>966946680</v>
+        <v>14435976200</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>454413990</v>
+        <v>10838198100</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>600375.34</v>
+        <v>4998087.17</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>200605.186</v>
+        <v>842821402</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>1667.057</v>
+        <v>5244.0961</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>847.26705</v>
+        <v>3714.5659</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>1157279.66</v>
+        <v>21116629</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>2509177.8</v>
+        <v>919776111</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>664.73851</v>
+        <v>897.89683</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>417.60773</v>
+        <v>659.73578</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>1515.8375</v>
+        <v>7282.5859</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>723.41584</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>932.96222</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>654.91496</v>
+        <v>4075.7049</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>3552.0664</v>
+        <v>8684.8085</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>500.00639</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>499.67135</v>
+        <v>5429.9931</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>1037.16599</v>
+        <v>3580.3949</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>27703130.9</v>
+        <v>981734140</v>
       </c>
       <c r="AG10" s="0" t="n">
         <v>30</v>
@@ -2794,94 +2795,94 @@
         <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>7799057900</v>
+        <v>66866667000</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>6.80183956008E+033</v>
+        <v>6.5767881385894E+044</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>67571.689</v>
+        <v>113481.314</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>633.9959</v>
+        <v>18147.062</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>247.19852</v>
+        <v>487.85754</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>49.879969</v>
+        <v>93.374824</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>291.19946</v>
+        <v>1223.56432</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>167.13035</v>
+        <v>391.74228</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>3449.927</v>
+        <v>15891.422</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>4016.0854</v>
+        <v>7429.5096</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>2224.3392</v>
+        <v>8598.3324</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>656564300</v>
+        <v>14435976200</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>250230300</v>
+        <v>10838198100</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>578961.68</v>
+        <v>4998087.17</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>128586.435</v>
+        <v>842821402</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>1619.4024</v>
+        <v>5244.0961</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>847.26705</v>
+        <v>3714.5659</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>1056338.64</v>
+        <v>21116629</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>1270326.33</v>
+        <v>919776111</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>664.73851</v>
+        <v>897.89683</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>413.65308</v>
+        <v>659.73578</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>1025.89183</v>
+        <v>7282.5859</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>721.97183</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>930.51135</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>599.10912</v>
+        <v>4075.7049</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>3436.9518</v>
+        <v>8684.8085</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>500.00639</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>499.64776</v>
+        <v>5429.9931</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>988.31678</v>
+        <v>3580.3949</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>25804104.9</v>
+        <v>981734140</v>
       </c>
       <c r="AG11" s="0" t="n">
         <v>30</v>
@@ -2895,94 +2896,94 @@
         <v>70</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>4514689300</v>
+        <v>66866667000</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>9.163627825E+029</v>
+        <v>6.5767881385894E+044</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>65082.286</v>
+        <v>113481.314</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>466.90374</v>
+        <v>18147.062</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>246.41185</v>
+        <v>487.85754</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>49.879969</v>
+        <v>93.374824</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>291.19946</v>
+        <v>1223.56432</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>162.92492</v>
+        <v>391.74228</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>3449.927</v>
+        <v>15251.3041</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>3997.3344</v>
+        <v>7326.1642</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>1160.06463</v>
+        <v>8598.3324</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>441227910</v>
+        <v>14435976200</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>125809617</v>
+        <v>10838198100</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>571728.22</v>
+        <v>4998087.17</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>125068.918</v>
+        <v>842821402</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>1548.94859</v>
+        <v>5244.0961</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>847.26705</v>
+        <v>3714.5659</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>941653.95</v>
+        <v>21116629</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>704576.62</v>
+        <v>919776111</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>664.73851</v>
+        <v>897.89683</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>403.8543</v>
+        <v>659.73578</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>749.24256</v>
+        <v>7282.5859</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>714.37719</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>930.19185</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <v>524.58151</v>
+        <v>4075.7049</v>
       </c>
       <c r="AB12" s="0" t="n">
-        <v>3351.3291</v>
+        <v>8684.8085</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>500.00639</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>499.63399</v>
+        <v>5429.9931</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <v>982.86212</v>
+        <v>3580.3949</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>21558263.9</v>
+        <v>981734140</v>
       </c>
       <c r="AG12" s="0" t="n">
         <v>30</v>
@@ -2996,94 +2997,94 @@
         <v>80</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>2638655100</v>
+        <v>66866667000</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>3.4402545378E+027</v>
+        <v>6.5767881385894E+044</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>63777.679</v>
+        <v>112914.916</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>294.81181</v>
+        <v>18147.062</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>246.24471</v>
+        <v>487.85754</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>49.879969</v>
+        <v>93.374824</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>291.19946</v>
+        <v>1223.56432</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>157.70778</v>
+        <v>391.33484</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>3449.927</v>
+        <v>15251.3041</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>3979.3126</v>
+        <v>7321.416</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>660.3214</v>
+        <v>8598.3324</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>281296610</v>
+        <v>14435976200</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>66246740</v>
+        <v>10838198100</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>507966.62</v>
+        <v>4998087.17</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>86588.354</v>
+        <v>842821402</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>1485.68459</v>
+        <v>5244.0961</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>847.26705</v>
+        <v>3714.5659</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>896253.71</v>
+        <v>21116629</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>522728.35</v>
+        <v>919776111</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>664.73851</v>
+        <v>897.89683</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>400.60558</v>
+        <v>659.73578</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>485.81451</v>
+        <v>7282.5859</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>690.44801</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>925.42399</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>486.12689</v>
+        <v>4075.7049</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>3317.9039</v>
+        <v>8684.8085</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>500.00638</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>499.50079</v>
+        <v>5429.9931</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>956.08134</v>
+        <v>3580.3949</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>13750298.7</v>
+        <v>981734140</v>
       </c>
       <c r="AG13" s="0" t="n">
         <v>30</v>
@@ -3097,94 +3098,94 @@
         <v>90</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1101050780</v>
+        <v>66866667000</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>9.74737902711E+025</v>
+        <v>6.5767881385894E+044</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>62084.943</v>
+        <v>112914.916</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>192.15739</v>
+        <v>18147.062</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>244.09761</v>
+        <v>487.85754</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>49.879969</v>
+        <v>93.374824</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>288.52865</v>
+        <v>1223.56432</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>156.36854</v>
+        <v>391.33484</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>3449.927</v>
+        <v>15053.7061</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>3961.6165</v>
+        <v>7321.416</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>410.85734</v>
+        <v>8598.3324</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>134007525</v>
+        <v>14435976200</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>25901246.9</v>
+        <v>10838198100</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>499536.12</v>
+        <v>4998087.17</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>67408.716</v>
+        <v>842821402</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>1426.81861</v>
+        <v>5244.0961</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>847.26705</v>
+        <v>3714.5659</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>861922.88</v>
+        <v>21116629</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>353351.25</v>
+        <v>919776111</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>664.73851</v>
+        <v>897.89683</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>393.16539</v>
+        <v>659.73578</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>308.08768</v>
+        <v>7282.5859</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>674.63901</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>900.8225</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <v>431.71605</v>
+        <v>4075.7049</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <v>3269.90467</v>
+        <v>8684.8085</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>500.00638</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>499.39575</v>
+        <v>5429.9931</v>
       </c>
       <c r="AE14" s="0" t="n">
-        <v>941.10611</v>
+        <v>3580.3949</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>8268198.86</v>
+        <v>981734140</v>
       </c>
       <c r="AG14" s="0" t="n">
         <v>30</v>
@@ -3198,94 +3199,1630 @@
         <v>100</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>436446270</v>
+        <v>66866667000</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>3.4413481101603E+023</v>
+        <v>6.5767881385894E+044</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>56265.563</v>
+        <v>112914.916</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>131.56893</v>
+        <v>18147.062</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>244.02133</v>
+        <v>487.85754</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>49.879969</v>
+        <v>93.374824</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>287.83643</v>
+        <v>1223.56432</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>155.69767</v>
+        <v>391.33484</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>3449.927</v>
+        <v>15053.7061</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>3955.5459</v>
+        <v>7321.416</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>274.82438</v>
+        <v>8598.3324</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>68996288</v>
+        <v>14435976200</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>10255750.82</v>
+        <v>10838198100</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>484276.97</v>
+        <v>4998087.17</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>48479.428</v>
+        <v>842821402</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>1392.07221</v>
+        <v>5244.0961</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>847.26705</v>
+        <v>3714.5659</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>767430.34</v>
+        <v>21116629</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>204864.88</v>
+        <v>919776111</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>664.73851</v>
+        <v>897.89683</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>385.2463</v>
+        <v>659.73578</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>205.08424</v>
+        <v>7282.5859</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>665.55217</v>
+        <v>1301.73131</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>877.84408</v>
+        <v>1401.2341</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <v>403.1106</v>
+        <v>4075.7049</v>
       </c>
       <c r="AB15" s="0" t="n">
-        <v>3217.90139</v>
+        <v>8684.8085</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>500.00638</v>
+        <v>1435.55843</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>499.16817</v>
+        <v>5429.9931</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>935.80779</v>
+        <v>3580.3949</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>3944695</v>
+        <v>981734140</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AG15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>87189746000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>4.76169381184983E+047</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>209502.99</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>28355.472</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>557.44765</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>113.773469</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>2059.485</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>493.28838</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>22265.614</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>8575.5139</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>14999.2453</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>17563948000</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>13541965800</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>10089960.22</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>983200390</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>4341.6668</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>4299.522</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>93672733</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>1657346270</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>1317.6746</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>764.41333</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>8425.653</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>1249.34463</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>1401.0756</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>7923.2743</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>11524.4264</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>1688.8719</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>6601.3163</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>5185.4717</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>1793695620</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>84325973000</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2.245541691363E+045</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>182613.06</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>25629.977</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>551.1901</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>109.493979</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1836.6222</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>484.80451</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>19732.354</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>8443.3932</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>13541.7705</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>16409589000</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>11999865200</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>8482305.32</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>814814250</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>4123.2356</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>3951.8336</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>45510098</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1443127510</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>1241.0072</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>747.84609</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>8081.2572</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>1230.89213</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>1322.9501</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>7174.7549</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>10760.4058</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>1531.4385</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>6133.8473</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>5174.9108</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>1793695620</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>83994249000</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2.245541691363E+045</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>166975.473</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>24860.014</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>547.35761</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>108.333159</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1797.6852</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>480.0095</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>19196.804</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>8174.3794</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>12261.2239</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>16093119000</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>11453297200</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>7035053.92</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>709354760</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>3859.1685</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>3796.0849</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>36336037</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>1317846410</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>1186.1593</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>734.70799</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>7928.3926</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>1227.28663</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>1291.6437</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>7141.9624</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>10730.2508</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>1529.1817</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>5956.7799</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>4822.1982</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>1619015940</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>78977323000</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1.114817131047E+045</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>163150.303</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>23557.472</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>531.7555</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>106.058299</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1773.1242</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>474.45456</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>18858.57</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>8013.1035</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>11583.6849</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>15799204000</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>9685465500</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>5639705.44</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>619380277</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>3733.6962</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>3692.31</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>28229314.2</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>1129465750</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>1170.6216</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>719.55015</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>7710.5656</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>1212.75443</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>1280.2382</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>6399.0201</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>10492.3412</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>1479.7138</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>5462.8761</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>4528.391</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>1485004950</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>75047077000</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>4.98952056748E+044</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>147564.842</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>22878.502</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>498.87471</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>103.536769</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1704.549</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>450.01651</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>18030.488</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>7893.7717</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>10735.7885</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>13417701200</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>7974717000</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>3496960.3</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>348592157</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>3687.6957</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>2675.29</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>20914613.2</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>1020641000</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>1098.03821</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>691.51905</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>7304.4758</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>1169.63403</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>1256.0795</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>5764.4704</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>10209.2665</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>1399.2296</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>5250.3826</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>3993.443</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>1259865910</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>68190129000</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1.903242746925E+044</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>135664.272</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>20255.306</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>482.57476</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>100.439896</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1621.1736</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>436.96252</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>17514.639</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>7686.8063</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>9203.9816</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>12626960200</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>7482849400</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1417832.68</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>261831467</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>3537.4498</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>2443.8893</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>18308095.5</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>855916550</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>1020.54401</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>681.1662</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>6972.1624</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>1155.83583</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>1242.5123</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>5628.3881</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>9827.5142</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>1243.43184</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>4325.09764</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>3803.3409</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>1157776020</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>66296708000</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3.09011387925E+043</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>131365.082</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>19393.0788</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>482.57476</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>99.133977</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1615.7605</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>430.95719</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>16620.116</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>7571.4669</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>8873.066</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>11558771800</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>6869528400</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1333425.24</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>243190337</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>3507.9906</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>2410.6818</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>17491013.6</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>594889686</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>996.21732</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>664.98457</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>6842.3927</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>1144.88903</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>1230.9016</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>5424.3648</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>9772.7907</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>1174.25419</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>4107.49934</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>3531.8619</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>1042200420</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>65484398000</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>3.084778455798E+043</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>125248.052</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>19070.3068</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>472.60623</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>97.804487</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1609.7241</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>430.16572</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>16012.755</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>7509.4799</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>8525.3903</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>11410417800</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>6685482300</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1289409.28</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>238209837</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>3374.673</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>2380.5979</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>16318425.9</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>554644046</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>989.84507</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>663.39562</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>6820.8985</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>1138.23633</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>1215.2676</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>4651.6177</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>9589.9083</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <v>1159.45639</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <v>3618.56484</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <v>3450.2256</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <v>984655890</v>
+      </c>
+      <c r="AG9" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>64615344000</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2.24976462868E+042</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>124460.642</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>19062.2858</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>472.60623</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>95.687397</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1594.6927</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>424.79575</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>15680.203</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>7504.4246</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>8198.6982</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>11345045800</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>6588276300</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1213689.48</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>238209837</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>3282.9352</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>2352.3865</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>13059443.6</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>542707946</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>965.7926</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>661.64894</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>6709.7509</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>1136.04653</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>1202.8995</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>4651.6177</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>9392.9581</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>1152.51845</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>3534.44074</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>3318.1258</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>944781640</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>62776294000</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1.53354677418E+042</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>121718.422</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>18923.1748</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>467.30092</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>95.687397</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1588.2228</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>419.45251</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>15393.776</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>7420.2479</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>8198.6982</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>11099052100</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>6310151800</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1151126.88</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>238209837</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>3264.8268</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>2346.2335</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>13059443.6</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>529234446</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>957.58188</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>660.46707</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>6709.7509</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>1114.91183</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>1182.9488</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>4434.9196</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>9377.3759</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>1146.39485</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>3534.44074</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>3292.5035</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>909851990</v>
+      </c>
+      <c r="AG11" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>61916280000</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1.32823758106E+042</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>119662.172</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>17251.0908</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>467.30092</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>95.687397</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1541.4379</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>418.31248</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>15393.776</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>7418.4968</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>8198.6982</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>11050902900</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>6032740200</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>1124998.8</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>217735417</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>3236.2314</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>2323.1247</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>12494651.6</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>425553946</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>955.01462</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>659.22059</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>6699.9018</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>1097.04273</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>1164.1106</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>4401.9652</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>9347.8372</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>1109.58333</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <v>3435.37684</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>3292.5035</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>845946940</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>61916280000</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1.31918758106E+042</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>119128.012</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>17104.2638</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>465.92745</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>95.687397</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1525.892</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>416.97646</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>15393.776</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>7363.6708</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>8025.6658</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>11050902900</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>5870126300</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1100084.85</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>217735417</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>3219.7411</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>2025.5636</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>11459999.2</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>398536786</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>940.82548</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>658.82687</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>6699.9018</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>1079.60103</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>1157.4314</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>4204.2665</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>9270.6955</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>999.55253</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <v>2986.21834</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>3258.7118</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>837881610</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>61916280000</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1.31918758106E+042</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>119128.012</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>16438.6503</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>465.495</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>95.687397</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1513.0846</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>416.78851</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>15145.081</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>7339.1769</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>7857.6793</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>10993199700</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>5854558400</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1094589.31</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>197667177</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>3179.9488</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>1858.5198</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>11459999.2</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>392758376</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>924.45409</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>658.82687</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>6602.233</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>1079.60103</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>1157.4314</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>4174.2888</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>9234.6576</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>978.35263</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>2986.21834</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>3162.5727</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>737263610</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>61775664000</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1.31918758106E+042</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>117958.282</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>15867.7283</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>465.45341</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>95.603087</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1508.6166</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>410.50308</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>15040.153</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>7307.568</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>7857.6793</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>10993199700</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>5708334800</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>1070934.71</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>171557687</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>3163.9289</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>1844.0664</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>10991195.2</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>392758376</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>886.92078</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>645.96716</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>6576.3485</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>1068.55892</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>1157.4314</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>4066.9605</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>9234.6576</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>931.52019</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>2555.49362</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>3107.6113</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>737263610</v>
       </c>
       <c r="AG15" s="0" t="n">
         <v>30</v>
